--- a/migforecasting/cities11-12/0/d6.xlsx
+++ b/migforecasting/cities11-12/0/d6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities11-12\0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="616">
   <si>
     <t>2011</t>
   </si>
@@ -749,45 +749,6 @@
   </si>
   <si>
     <t>13,1</t>
-  </si>
-  <si>
-    <t>Численность детей, стоящих на учете для определения в дошкольные образовательные организации, человек</t>
-  </si>
-  <si>
-    <t>18248</t>
-  </si>
-  <si>
-    <t>19825</t>
-  </si>
-  <si>
-    <t>24636</t>
-  </si>
-  <si>
-    <t>2064</t>
-  </si>
-  <si>
-    <t>4961</t>
-  </si>
-  <si>
-    <t>4167</t>
-  </si>
-  <si>
-    <t>2671</t>
-  </si>
-  <si>
-    <t>5127</t>
-  </si>
-  <si>
-    <t>5661</t>
-  </si>
-  <si>
-    <t>13685</t>
-  </si>
-  <si>
-    <t>15343</t>
-  </si>
-  <si>
-    <t>17105</t>
   </si>
   <si>
     <t>Численность врачей, человек:</t>
@@ -2303,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="S53" sqref="S53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,40 +2321,40 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="D2" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="E2" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="F2" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="G2" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="H2" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="I2" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="J2" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="K2" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="L2" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="M2" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="N2" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -3428,49 +3389,49 @@
       <c r="B28" t="s">
         <v>241</v>
       </c>
-      <c r="C28" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" t="s">
-        <v>243</v>
-      </c>
-      <c r="E28" t="s">
-        <v>244</v>
-      </c>
-      <c r="F28" t="s">
-        <v>245</v>
-      </c>
-      <c r="G28" t="s">
-        <v>246</v>
-      </c>
-      <c r="H28" t="s">
-        <v>247</v>
-      </c>
-      <c r="I28" t="s">
-        <v>248</v>
-      </c>
-      <c r="J28" t="s">
-        <v>249</v>
-      </c>
-      <c r="K28" t="s">
-        <v>250</v>
-      </c>
-      <c r="L28" t="s">
-        <v>251</v>
-      </c>
-      <c r="M28" t="s">
-        <v>252</v>
-      </c>
-      <c r="N28" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>254</v>
+        <v>242</v>
+      </c>
+      <c r="C29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" t="s">
+        <v>247</v>
+      </c>
+      <c r="H29" t="s">
+        <v>248</v>
+      </c>
+      <c r="I29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M29" t="s">
+        <v>252</v>
+      </c>
+      <c r="N29" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -3478,31 +3439,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" t="s">
         <v>255</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>256</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>257</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>258</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>259</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>260</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>261</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>262</v>
-      </c>
-      <c r="J30" t="s">
-        <v>108</v>
       </c>
       <c r="K30" t="s">
         <v>263</v>
@@ -3514,7 +3475,7 @@
         <v>265</v>
       </c>
       <c r="N30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3522,43 +3483,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>267</v>
-      </c>
-      <c r="C31" t="s">
-        <v>268</v>
-      </c>
-      <c r="D31" t="s">
-        <v>269</v>
-      </c>
-      <c r="E31" t="s">
-        <v>270</v>
-      </c>
-      <c r="F31" t="s">
-        <v>271</v>
-      </c>
-      <c r="G31" t="s">
-        <v>272</v>
-      </c>
-      <c r="H31" t="s">
-        <v>273</v>
-      </c>
-      <c r="I31" t="s">
-        <v>274</v>
-      </c>
-      <c r="J31" t="s">
-        <v>275</v>
-      </c>
-      <c r="K31" t="s">
-        <v>276</v>
-      </c>
-      <c r="L31" t="s">
-        <v>277</v>
-      </c>
-      <c r="M31" t="s">
-        <v>278</v>
-      </c>
-      <c r="N31" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -3566,7 +3491,43 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>279</v>
+        <v>242</v>
+      </c>
+      <c r="C32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>271</v>
+      </c>
+      <c r="H32" t="s">
+        <v>272</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="s">
+        <v>277</v>
+      </c>
+      <c r="N32" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -3574,43 +3535,43 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" t="s">
         <v>280</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>281</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>282</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>283</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>284</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>285</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>286</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>287</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>288</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
+        <v>191</v>
+      </c>
+      <c r="N33" t="s">
         <v>289</v>
-      </c>
-      <c r="M33" t="s">
-        <v>290</v>
-      </c>
-      <c r="N33" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -3618,43 +3579,43 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="C34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D34" t="s">
+        <v>291</v>
+      </c>
+      <c r="E34" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" t="s">
         <v>292</v>
       </c>
-      <c r="D34" t="s">
+      <c r="G34" t="s">
+        <v>292</v>
+      </c>
+      <c r="H34" t="s">
+        <v>292</v>
+      </c>
+      <c r="I34" t="s">
         <v>293</v>
       </c>
-      <c r="E34" t="s">
+      <c r="J34" t="s">
+        <v>293</v>
+      </c>
+      <c r="K34" t="s">
         <v>294</v>
       </c>
-      <c r="F34" t="s">
+      <c r="L34" t="s">
         <v>295</v>
       </c>
-      <c r="G34" t="s">
+      <c r="M34" t="s">
         <v>296</v>
       </c>
-      <c r="H34" t="s">
-        <v>297</v>
-      </c>
-      <c r="I34" t="s">
-        <v>298</v>
-      </c>
-      <c r="J34" t="s">
-        <v>299</v>
-      </c>
-      <c r="K34" t="s">
-        <v>300</v>
-      </c>
-      <c r="L34" t="s">
-        <v>301</v>
-      </c>
-      <c r="M34" t="s">
-        <v>191</v>
-      </c>
       <c r="N34" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -3662,43 +3623,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
-      </c>
-      <c r="C35" t="s">
-        <v>304</v>
-      </c>
-      <c r="D35" t="s">
-        <v>304</v>
-      </c>
-      <c r="E35" t="s">
-        <v>304</v>
-      </c>
-      <c r="F35" t="s">
-        <v>305</v>
-      </c>
-      <c r="G35" t="s">
-        <v>305</v>
-      </c>
-      <c r="H35" t="s">
-        <v>305</v>
-      </c>
-      <c r="I35" t="s">
-        <v>306</v>
-      </c>
-      <c r="J35" t="s">
-        <v>306</v>
-      </c>
-      <c r="K35" t="s">
-        <v>307</v>
-      </c>
-      <c r="L35" t="s">
-        <v>308</v>
-      </c>
-      <c r="M35" t="s">
-        <v>309</v>
-      </c>
-      <c r="N35" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -3706,7 +3631,43 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>310</v>
+        <v>298</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>299</v>
+      </c>
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" t="s">
+        <v>300</v>
+      </c>
+      <c r="J36" t="s">
+        <v>301</v>
+      </c>
+      <c r="K36" t="s">
+        <v>302</v>
+      </c>
+      <c r="L36" t="s">
+        <v>303</v>
+      </c>
+      <c r="M36" t="s">
+        <v>304</v>
+      </c>
+      <c r="N36" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -3714,43 +3675,43 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" t="s">
+        <v>309</v>
+      </c>
+      <c r="H37" t="s">
+        <v>310</v>
+      </c>
+      <c r="I37" t="s">
         <v>311</v>
       </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="J37" t="s">
         <v>312</v>
       </c>
-      <c r="F37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" t="s">
-        <v>100</v>
-      </c>
-      <c r="H37" t="s">
-        <v>100</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>313</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
         <v>314</v>
       </c>
-      <c r="K37" t="s">
+      <c r="M37" t="s">
         <v>315</v>
       </c>
-      <c r="L37" t="s">
+      <c r="N37" t="s">
         <v>316</v>
-      </c>
-      <c r="M37" t="s">
-        <v>317</v>
-      </c>
-      <c r="N37" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3758,43 +3719,43 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="C38" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" t="s">
         <v>318</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>318</v>
+      </c>
+      <c r="F38" t="s">
+        <v>295</v>
+      </c>
+      <c r="G38" t="s">
         <v>319</v>
       </c>
-      <c r="E38" t="s">
+      <c r="H38" t="s">
         <v>320</v>
       </c>
-      <c r="F38" t="s">
+      <c r="I38" t="s">
         <v>321</v>
       </c>
-      <c r="G38" t="s">
+      <c r="J38" t="s">
         <v>322</v>
       </c>
-      <c r="H38" t="s">
+      <c r="K38" t="s">
         <v>323</v>
       </c>
-      <c r="I38" t="s">
+      <c r="L38" t="s">
         <v>324</v>
       </c>
-      <c r="J38" t="s">
-        <v>325</v>
-      </c>
-      <c r="K38" t="s">
-        <v>326</v>
-      </c>
-      <c r="L38" t="s">
-        <v>327</v>
-      </c>
       <c r="M38" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N38" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -3802,43 +3763,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>330</v>
-      </c>
-      <c r="C39" t="s">
-        <v>216</v>
-      </c>
-      <c r="D39" t="s">
-        <v>331</v>
-      </c>
-      <c r="E39" t="s">
-        <v>331</v>
-      </c>
-      <c r="F39" t="s">
-        <v>308</v>
-      </c>
-      <c r="G39" t="s">
-        <v>332</v>
-      </c>
-      <c r="H39" t="s">
-        <v>333</v>
-      </c>
-      <c r="I39" t="s">
-        <v>334</v>
-      </c>
-      <c r="J39" t="s">
-        <v>335</v>
-      </c>
-      <c r="K39" t="s">
-        <v>336</v>
-      </c>
-      <c r="L39" t="s">
-        <v>337</v>
-      </c>
-      <c r="M39" t="s">
-        <v>335</v>
-      </c>
-      <c r="N39" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3846,7 +3771,43 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>338</v>
+        <v>298</v>
+      </c>
+      <c r="C40" t="s">
+        <v>326</v>
+      </c>
+      <c r="D40" t="s">
+        <v>327</v>
+      </c>
+      <c r="E40" t="s">
+        <v>328</v>
+      </c>
+      <c r="F40" t="s">
+        <v>329</v>
+      </c>
+      <c r="G40" t="s">
+        <v>330</v>
+      </c>
+      <c r="H40" t="s">
+        <v>234</v>
+      </c>
+      <c r="I40" t="s">
+        <v>331</v>
+      </c>
+      <c r="J40" t="s">
+        <v>332</v>
+      </c>
+      <c r="K40" t="s">
+        <v>333</v>
+      </c>
+      <c r="L40" t="s">
+        <v>334</v>
+      </c>
+      <c r="M40" t="s">
+        <v>86</v>
+      </c>
+      <c r="N40" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3854,43 +3815,43 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="C41" t="s">
+        <v>336</v>
+      </c>
+      <c r="D41" t="s">
+        <v>337</v>
+      </c>
+      <c r="E41" t="s">
+        <v>338</v>
+      </c>
+      <c r="F41" t="s">
         <v>339</v>
       </c>
-      <c r="D41" t="s">
+      <c r="G41" t="s">
         <v>340</v>
       </c>
-      <c r="E41" t="s">
+      <c r="H41" t="s">
         <v>341</v>
       </c>
-      <c r="F41" t="s">
+      <c r="I41" t="s">
         <v>342</v>
       </c>
-      <c r="G41" t="s">
+      <c r="J41" t="s">
         <v>343</v>
       </c>
-      <c r="H41" t="s">
-        <v>234</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>344</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>345</v>
       </c>
-      <c r="K41" t="s">
+      <c r="M41" t="s">
+        <v>345</v>
+      </c>
+      <c r="N41" t="s">
         <v>346</v>
-      </c>
-      <c r="L41" t="s">
-        <v>347</v>
-      </c>
-      <c r="M41" t="s">
-        <v>86</v>
-      </c>
-      <c r="N41" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -3898,37 +3859,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="C42" t="s">
+        <v>348</v>
+      </c>
+      <c r="D42" t="s">
         <v>349</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>350</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>351</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>352</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>353</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>354</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>355</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>356</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>357</v>
-      </c>
-      <c r="L42" t="s">
-        <v>358</v>
       </c>
       <c r="M42" t="s">
         <v>358</v>
@@ -3989,40 +3950,40 @@
         <v>373</v>
       </c>
       <c r="C44" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D44" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E44" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F44" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G44" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H44" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I44" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="J44" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K44" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L44" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="N44" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -4030,40 +3991,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C45" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D45" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E45" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F45" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G45" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H45" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="I45" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="J45" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K45" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N45" t="s">
         <v>386</v>
@@ -4121,40 +4082,40 @@
         <v>400</v>
       </c>
       <c r="C47" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" t="s">
         <v>401</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>402</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>403</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>404</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>405</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>406</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>407</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>408</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
+        <v>196</v>
+      </c>
+      <c r="M47" t="s">
         <v>409</v>
       </c>
-      <c r="L47" t="s">
+      <c r="N47" t="s">
         <v>410</v>
-      </c>
-      <c r="M47" t="s">
-        <v>411</v>
-      </c>
-      <c r="N47" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -4162,43 +4123,43 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>411</v>
+      </c>
+      <c r="C48" t="s">
+        <v>412</v>
+      </c>
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" t="s">
         <v>413</v>
       </c>
-      <c r="C48" t="s">
-        <v>221</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="G48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48" t="s">
+        <v>224</v>
+      </c>
+      <c r="J48" t="s">
+        <v>224</v>
+      </c>
+      <c r="K48" t="s">
         <v>414</v>
       </c>
-      <c r="E48" t="s">
+      <c r="L48" t="s">
         <v>415</v>
       </c>
-      <c r="F48" t="s">
+      <c r="M48" t="s">
+        <v>330</v>
+      </c>
+      <c r="N48" t="s">
         <v>416</v>
-      </c>
-      <c r="G48" t="s">
-        <v>417</v>
-      </c>
-      <c r="H48" t="s">
-        <v>418</v>
-      </c>
-      <c r="I48" t="s">
-        <v>419</v>
-      </c>
-      <c r="J48" t="s">
-        <v>420</v>
-      </c>
-      <c r="K48" t="s">
-        <v>421</v>
-      </c>
-      <c r="L48" t="s">
-        <v>196</v>
-      </c>
-      <c r="M48" t="s">
-        <v>422</v>
-      </c>
-      <c r="N48" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -4206,43 +4167,43 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C49" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>417</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>417</v>
       </c>
       <c r="F49" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>417</v>
       </c>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>417</v>
       </c>
       <c r="I49" t="s">
-        <v>224</v>
+        <v>417</v>
       </c>
       <c r="J49" t="s">
-        <v>224</v>
+        <v>417</v>
       </c>
       <c r="K49" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="L49" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="M49" t="s">
-        <v>343</v>
+        <v>417</v>
       </c>
       <c r="N49" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -4250,40 +4211,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C50" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D50" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E50" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="F50" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G50" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H50" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="I50" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="J50" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K50" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L50" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M50" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N50" t="s">
         <v>430</v>
@@ -4297,40 +4258,40 @@
         <v>431</v>
       </c>
       <c r="C51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D51" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E51" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F51" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G51" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H51" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I51" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="J51" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K51" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="L51" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="M51" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="N51" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -4338,43 +4299,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>444</v>
-      </c>
-      <c r="C52" t="s">
-        <v>444</v>
-      </c>
-      <c r="D52" t="s">
-        <v>444</v>
-      </c>
-      <c r="E52" t="s">
-        <v>444</v>
-      </c>
-      <c r="F52" t="s">
-        <v>444</v>
-      </c>
-      <c r="G52" t="s">
-        <v>444</v>
-      </c>
-      <c r="H52" t="s">
-        <v>444</v>
-      </c>
-      <c r="I52" t="s">
-        <v>444</v>
-      </c>
-      <c r="J52" t="s">
-        <v>444</v>
-      </c>
-      <c r="K52" t="s">
-        <v>444</v>
-      </c>
-      <c r="L52" t="s">
-        <v>444</v>
-      </c>
-      <c r="M52" t="s">
-        <v>444</v>
-      </c>
-      <c r="N52" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -4382,7 +4307,43 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>445</v>
+        <v>433</v>
+      </c>
+      <c r="C53" t="s">
+        <v>434</v>
+      </c>
+      <c r="D53" t="s">
+        <v>434</v>
+      </c>
+      <c r="E53" t="s">
+        <v>434</v>
+      </c>
+      <c r="F53" t="s">
+        <v>435</v>
+      </c>
+      <c r="G53" t="s">
+        <v>435</v>
+      </c>
+      <c r="H53" t="s">
+        <v>435</v>
+      </c>
+      <c r="I53" t="s">
+        <v>436</v>
+      </c>
+      <c r="J53" t="s">
+        <v>436</v>
+      </c>
+      <c r="K53" t="s">
+        <v>436</v>
+      </c>
+      <c r="L53" t="s">
+        <v>435</v>
+      </c>
+      <c r="M53" t="s">
+        <v>435</v>
+      </c>
+      <c r="N53" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -4390,43 +4351,43 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C54" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D54" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E54" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F54" t="s">
-        <v>448</v>
+        <v>324</v>
       </c>
       <c r="G54" t="s">
-        <v>448</v>
+        <v>322</v>
       </c>
       <c r="H54" t="s">
-        <v>448</v>
+        <v>323</v>
       </c>
       <c r="I54" t="s">
-        <v>449</v>
+        <v>295</v>
       </c>
       <c r="J54" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="K54" t="s">
-        <v>449</v>
+        <v>294</v>
       </c>
       <c r="L54" t="s">
-        <v>448</v>
+        <v>295</v>
       </c>
       <c r="M54" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="N54" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -4434,43 +4395,43 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C55" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D55" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E55" t="s">
-        <v>453</v>
+        <v>321</v>
       </c>
       <c r="F55" t="s">
-        <v>337</v>
+        <v>446</v>
       </c>
       <c r="G55" t="s">
-        <v>335</v>
+        <v>434</v>
       </c>
       <c r="H55" t="s">
-        <v>336</v>
+        <v>434</v>
       </c>
       <c r="I55" t="s">
-        <v>308</v>
+        <v>434</v>
       </c>
       <c r="J55" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="K55" t="s">
-        <v>307</v>
+        <v>447</v>
       </c>
       <c r="L55" t="s">
-        <v>308</v>
+        <v>435</v>
       </c>
       <c r="M55" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="N55" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -4478,43 +4439,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>456</v>
-      </c>
-      <c r="C56" t="s">
-        <v>457</v>
-      </c>
-      <c r="D56" t="s">
-        <v>458</v>
-      </c>
-      <c r="E56" t="s">
-        <v>334</v>
-      </c>
-      <c r="F56" t="s">
-        <v>459</v>
-      </c>
-      <c r="G56" t="s">
-        <v>447</v>
-      </c>
-      <c r="H56" t="s">
-        <v>447</v>
-      </c>
-      <c r="I56" t="s">
-        <v>447</v>
-      </c>
-      <c r="J56" t="s">
-        <v>447</v>
-      </c>
-      <c r="K56" t="s">
-        <v>460</v>
-      </c>
-      <c r="L56" t="s">
-        <v>448</v>
-      </c>
-      <c r="M56" t="s">
-        <v>448</v>
-      </c>
-      <c r="N56" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -4522,7 +4447,43 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>462</v>
+        <v>450</v>
+      </c>
+      <c r="C57" t="s">
+        <v>451</v>
+      </c>
+      <c r="D57" t="s">
+        <v>452</v>
+      </c>
+      <c r="E57" t="s">
+        <v>453</v>
+      </c>
+      <c r="F57" t="s">
+        <v>454</v>
+      </c>
+      <c r="G57" t="s">
+        <v>454</v>
+      </c>
+      <c r="H57" t="s">
+        <v>454</v>
+      </c>
+      <c r="I57" t="s">
+        <v>436</v>
+      </c>
+      <c r="J57" t="s">
+        <v>436</v>
+      </c>
+      <c r="K57" t="s">
+        <v>436</v>
+      </c>
+      <c r="L57" t="s">
+        <v>454</v>
+      </c>
+      <c r="M57" t="s">
+        <v>454</v>
+      </c>
+      <c r="N57" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -4530,43 +4491,43 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>437</v>
+      </c>
+      <c r="C58" t="s">
+        <v>455</v>
+      </c>
+      <c r="D58" t="s">
+        <v>456</v>
+      </c>
+      <c r="E58" t="s">
+        <v>457</v>
+      </c>
+      <c r="F58" t="s">
+        <v>458</v>
+      </c>
+      <c r="G58" t="s">
+        <v>459</v>
+      </c>
+      <c r="H58" t="s">
+        <v>460</v>
+      </c>
+      <c r="I58" t="s">
+        <v>461</v>
+      </c>
+      <c r="J58" t="s">
+        <v>462</v>
+      </c>
+      <c r="K58" t="s">
         <v>463</v>
       </c>
-      <c r="C58" t="s">
+      <c r="L58" t="s">
         <v>464</v>
       </c>
-      <c r="D58" t="s">
+      <c r="M58" t="s">
         <v>465</v>
       </c>
-      <c r="E58" t="s">
+      <c r="N58" t="s">
         <v>466</v>
-      </c>
-      <c r="F58" t="s">
-        <v>467</v>
-      </c>
-      <c r="G58" t="s">
-        <v>467</v>
-      </c>
-      <c r="H58" t="s">
-        <v>467</v>
-      </c>
-      <c r="I58" t="s">
-        <v>449</v>
-      </c>
-      <c r="J58" t="s">
-        <v>449</v>
-      </c>
-      <c r="K58" t="s">
-        <v>449</v>
-      </c>
-      <c r="L58" t="s">
-        <v>467</v>
-      </c>
-      <c r="M58" t="s">
-        <v>467</v>
-      </c>
-      <c r="N58" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -4574,7 +4535,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="C59" t="s">
         <v>468</v>
@@ -4604,13 +4565,13 @@
         <v>476</v>
       </c>
       <c r="L59" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="M59" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="N59" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -4618,43 +4579,43 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C60" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D60" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E60" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F60" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G60" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H60" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="I60" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="J60" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="K60" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="L60" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="M60" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="N60" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -4662,40 +4623,40 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C61" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D61" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="E61" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="F61" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G61" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="H61" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="I61" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="J61" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K61" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L61" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M61" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N61" t="s">
         <v>490</v>
@@ -4708,48 +4669,48 @@
       <c r="B62" t="s">
         <v>491</v>
       </c>
-      <c r="C62" t="s">
-        <v>492</v>
-      </c>
-      <c r="D62" t="s">
-        <v>493</v>
-      </c>
-      <c r="E62" t="s">
-        <v>494</v>
-      </c>
-      <c r="F62" t="s">
-        <v>495</v>
-      </c>
-      <c r="G62" t="s">
-        <v>496</v>
-      </c>
-      <c r="H62" t="s">
-        <v>497</v>
-      </c>
-      <c r="I62" t="s">
-        <v>498</v>
-      </c>
-      <c r="J62" t="s">
-        <v>499</v>
-      </c>
-      <c r="K62" t="s">
-        <v>500</v>
-      </c>
-      <c r="L62" t="s">
-        <v>501</v>
-      </c>
-      <c r="M62" t="s">
-        <v>502</v>
-      </c>
-      <c r="N62" t="s">
-        <v>503</v>
-      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>492</v>
+      </c>
+      <c r="C63" t="s">
+        <v>493</v>
+      </c>
+      <c r="D63" t="s">
+        <v>494</v>
+      </c>
+      <c r="E63" t="s">
+        <v>495</v>
+      </c>
+      <c r="F63" t="s">
+        <v>496</v>
+      </c>
+      <c r="G63" t="s">
+        <v>497</v>
+      </c>
+      <c r="H63" t="s">
+        <v>498</v>
+      </c>
+      <c r="I63" t="s">
+        <v>499</v>
+      </c>
+      <c r="J63" t="s">
+        <v>500</v>
+      </c>
+      <c r="K63" t="s">
+        <v>501</v>
+      </c>
+      <c r="L63" t="s">
+        <v>502</v>
+      </c>
+      <c r="M63" t="s">
+        <v>503</v>
+      </c>
+      <c r="N63" t="s">
         <v>504</v>
       </c>
     </row>
@@ -4805,85 +4766,46 @@
         <v>518</v>
       </c>
       <c r="C65" t="s">
+        <v>436</v>
+      </c>
+      <c r="D65" t="s">
+        <v>436</v>
+      </c>
+      <c r="E65" t="s">
+        <v>436</v>
+      </c>
+      <c r="F65" t="s">
+        <v>436</v>
+      </c>
+      <c r="G65" t="s">
+        <v>319</v>
+      </c>
+      <c r="H65" t="s">
+        <v>436</v>
+      </c>
+      <c r="I65" t="s">
+        <v>436</v>
+      </c>
+      <c r="J65" t="s">
+        <v>436</v>
+      </c>
+      <c r="K65" t="s">
+        <v>436</v>
+      </c>
+      <c r="L65" t="s">
         <v>519</v>
       </c>
-      <c r="D65" t="s">
+      <c r="M65" t="s">
+        <v>436</v>
+      </c>
+      <c r="N65" t="s">
         <v>520</v>
-      </c>
-      <c r="E65" t="s">
-        <v>521</v>
-      </c>
-      <c r="F65" t="s">
-        <v>522</v>
-      </c>
-      <c r="G65" t="s">
-        <v>523</v>
-      </c>
-      <c r="H65" t="s">
-        <v>524</v>
-      </c>
-      <c r="I65" t="s">
-        <v>525</v>
-      </c>
-      <c r="J65" t="s">
-        <v>526</v>
-      </c>
-      <c r="K65" t="s">
-        <v>527</v>
-      </c>
-      <c r="L65" t="s">
-        <v>528</v>
-      </c>
-      <c r="M65" t="s">
-        <v>529</v>
-      </c>
-      <c r="N65" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>531</v>
-      </c>
-      <c r="C66" t="s">
-        <v>449</v>
-      </c>
-      <c r="D66" t="s">
-        <v>449</v>
-      </c>
-      <c r="E66" t="s">
-        <v>449</v>
-      </c>
-      <c r="F66" t="s">
-        <v>449</v>
-      </c>
-      <c r="G66" t="s">
-        <v>332</v>
-      </c>
-      <c r="H66" t="s">
-        <v>449</v>
-      </c>
-      <c r="I66" t="s">
-        <v>449</v>
-      </c>
-      <c r="J66" t="s">
-        <v>449</v>
-      </c>
-      <c r="K66" t="s">
-        <v>449</v>
-      </c>
-      <c r="L66" t="s">
-        <v>532</v>
-      </c>
-      <c r="M66" t="s">
-        <v>449</v>
-      </c>
-      <c r="N66" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -4900,43 +4822,43 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="C69" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="D69" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E69" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="F69" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="G69" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="H69" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="I69" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="J69" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="K69" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="L69" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="M69" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="N69" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -4944,43 +4866,43 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C70" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="D70" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="E70" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="F70" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="G70" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="H70" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="I70" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="J70" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="K70" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="L70" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="M70" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="N70" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -4988,43 +4910,43 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="C71" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="D71" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="E71" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="F71" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="G71" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="H71" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="I71" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="J71" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="K71" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="L71" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="M71" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="N71" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -5032,43 +4954,43 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C72" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="D72" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="E72" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="F72" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="G72" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="H72" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="I72" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="J72" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="K72" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="L72" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="M72" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="N72" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -5076,43 +4998,43 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="C73" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="D73" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="E73" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="F73" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="G73" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="H73" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="I73" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="J73" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="K73" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="L73" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="M73" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="N73" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -5120,43 +5042,43 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="C74" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="D74" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="E74" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="F74" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="G74" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="H74" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="I74" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="J74" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="K74" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="L74" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="M74" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="N74" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -5164,43 +5086,43 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="C75" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="D75" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="E75" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="F75" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="G75" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="H75" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="I75" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="J75" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="K75" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="L75" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="M75" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="N75" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -5208,34 +5130,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="C76" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="D76" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="E76" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F76" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="G76" t="s">
         <v>233</v>
       </c>
       <c r="H76" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="I76" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="J76" t="s">
         <v>36</v>
       </c>
       <c r="K76" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="L76" t="s">
         <v>23</v>
@@ -5252,7 +5174,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -5260,43 +5182,43 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="C78" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D78" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E78" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="F78" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="G78" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="H78" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="I78" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="J78" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="K78" t="s">
         <v>22</v>
       </c>
       <c r="L78" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="M78" t="s">
         <v>41</v>
       </c>
       <c r="N78" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -5304,40 +5226,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="C79" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="D79" t="s">
         <v>93</v>
       </c>
       <c r="E79" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="F79" t="s">
         <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="H79" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="I79" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="J79" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="K79" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="L79" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="M79" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="N79" t="s">
         <v>91</v>
@@ -5348,43 +5270,43 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="C80" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="D80" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="E80" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="F80" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="G80" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="H80" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="I80" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="J80" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="K80" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="L80" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="M80" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="N80" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
